--- a/kgstats-generated/2024.11.11/stats/xlsx/voc-referats-top-by-haul.xlsx
+++ b/kgstats-generated/2024.11.11/stats/xlsx/voc-referats-top-by-haul.xlsx
@@ -86,7 +86,7 @@
     <t>egor_2000</t>
   </si>
   <si>
-    <t>26 ч. 9 мин. 10 сек.</t>
+    <t>26 ч. 09 мин. 10 сек.</t>
   </si>
   <si>
     <t>6</t>
@@ -113,7 +113,7 @@
     <t>Сима44</t>
   </si>
   <si>
-    <t>21 ч. 8 мин. 50 сек.</t>
+    <t>21 ч. 08 мин. 50 сек.</t>
   </si>
   <si>
     <t>9</t>
@@ -122,7 +122,7 @@
     <t>Dobby_</t>
   </si>
   <si>
-    <t>21 ч. 3 мин. 58 сек.</t>
+    <t>21 ч. 03 мин. 58 сек.</t>
   </si>
   <si>
     <t>10</t>
@@ -131,7 +131,7 @@
     <t>Supersonic</t>
   </si>
   <si>
-    <t>20 ч. 7 мин. 45 сек.</t>
+    <t>20 ч. 07 мин. 45 сек.</t>
   </si>
   <si>
     <t>11</t>
@@ -149,7 +149,7 @@
     <t>xks</t>
   </si>
   <si>
-    <t>19 ч. 27 мин. 8 сек.</t>
+    <t>19 ч. 27 мин. 08 сек.</t>
   </si>
   <si>
     <t>13</t>
@@ -176,7 +176,7 @@
     <t>Аромат</t>
   </si>
   <si>
-    <t>18 ч. 0 мин. 21 сек.</t>
+    <t>18 ч. 00 мин. 21 сек.</t>
   </si>
   <si>
     <t>16</t>
@@ -185,7 +185,7 @@
     <t>Eremite</t>
   </si>
   <si>
-    <t>17 ч. 3 мин. 24 сек.</t>
+    <t>17 ч. 03 мин. 24 сек.</t>
   </si>
   <si>
     <t>17</t>
@@ -194,7 +194,7 @@
     <t>ofirinka</t>
   </si>
   <si>
-    <t>16 ч. 51 мин. 7 сек.</t>
+    <t>16 ч. 51 мин. 07 сек.</t>
   </si>
   <si>
     <t>18</t>
@@ -239,7 +239,7 @@
     <t>Кот_Черныш</t>
   </si>
   <si>
-    <t>14 ч. 12 мин. 2 сек.</t>
+    <t>14 ч. 12 мин. 02 сек.</t>
   </si>
   <si>
     <t>23</t>
@@ -248,7 +248,7 @@
     <t>Clara_Oswald</t>
   </si>
   <si>
-    <t>13 ч. 58 мин. 2 сек.</t>
+    <t>13 ч. 58 мин. 02 сек.</t>
   </si>
   <si>
     <t>24</t>
@@ -320,7 +320,7 @@
     <t>Vi1993</t>
   </si>
   <si>
-    <t>11 ч. 39 мин. 5 сек.</t>
+    <t>11 ч. 39 мин. 05 сек.</t>
   </si>
   <si>
     <t>32</t>
@@ -347,7 +347,7 @@
     <t>SamArKin</t>
   </si>
   <si>
-    <t>11 ч. 12 мин. 4 сек.</t>
+    <t>11 ч. 12 мин. 04 сек.</t>
   </si>
   <si>
     <t>35</t>
@@ -356,7 +356,7 @@
     <t>EVjGeNiX</t>
   </si>
   <si>
-    <t>11 ч. 5 мин. 14 сек.</t>
+    <t>11 ч. 05 мин. 14 сек.</t>
   </si>
   <si>
     <t>36</t>
@@ -410,7 +410,7 @@
     <t>Креслоноцец</t>
   </si>
   <si>
-    <t>10 ч. 27 мин. 4 сек.</t>
+    <t>10 ч. 27 мин. 04 сек.</t>
   </si>
   <si>
     <t>42</t>
@@ -419,7 +419,7 @@
     <t>Speed_King</t>
   </si>
   <si>
-    <t>10 ч. 9 мин. 12 сек.</t>
+    <t>10 ч. 09 мин. 12 сек.</t>
   </si>
   <si>
     <t>43</t>
@@ -428,7 +428,7 @@
     <t>proximo39</t>
   </si>
   <si>
-    <t>10 ч. 8 мин. 38 сек.</t>
+    <t>10 ч. 08 мин. 38 сек.</t>
   </si>
   <si>
     <t>44</t>
@@ -437,7 +437,7 @@
     <t>zeliks</t>
   </si>
   <si>
-    <t>10 ч. 5 мин. 17 сек.</t>
+    <t>10 ч. 05 мин. 17 сек.</t>
   </si>
   <si>
     <t>45</t>
@@ -446,7 +446,7 @@
     <t>Savitri</t>
   </si>
   <si>
-    <t>10 ч. 1 мин. 46 сек.</t>
+    <t>10 ч. 01 мин. 46 сек.</t>
   </si>
   <si>
     <t>46</t>
@@ -464,7 +464,7 @@
     <t>blurr</t>
   </si>
   <si>
-    <t>9 ч. 45 мин. 4 сек.</t>
+    <t>9 ч. 45 мин. 04 сек.</t>
   </si>
   <si>
     <t>48</t>
@@ -536,7 +536,7 @@
     <t>Fleabag</t>
   </si>
   <si>
-    <t>9 ч. 14 мин. 7 сек.</t>
+    <t>9 ч. 14 мин. 07 сек.</t>
   </si>
   <si>
     <t>56</t>
@@ -545,7 +545,7 @@
     <t>fishca</t>
   </si>
   <si>
-    <t>9 ч. 9 мин. 7 сек.</t>
+    <t>9 ч. 09 мин. 07 сек.</t>
   </si>
   <si>
     <t>57</t>
@@ -554,7 +554,7 @@
     <t>hangling</t>
   </si>
   <si>
-    <t>8 ч. 56 мин. 6 сек.</t>
+    <t>8 ч. 56 мин. 06 сек.</t>
   </si>
   <si>
     <t>58</t>
@@ -572,7 +572,7 @@
     <t>Лень</t>
   </si>
   <si>
-    <t>8 ч. 50 мин. 5 сек.</t>
+    <t>8 ч. 50 мин. 05 сек.</t>
   </si>
   <si>
     <t>60</t>
@@ -617,7 +617,7 @@
     <t>Yarook</t>
   </si>
   <si>
-    <t>8 ч. 26 мин. 1 сек.</t>
+    <t>8 ч. 26 мин. 01 сек.</t>
   </si>
   <si>
     <t>65</t>
@@ -689,7 +689,7 @@
     <t>s1c</t>
   </si>
   <si>
-    <t>8 ч. 6 мин. 31 сек.</t>
+    <t>8 ч. 06 мин. 31 сек.</t>
   </si>
   <si>
     <t>73</t>
@@ -698,7 +698,7 @@
     <t>Nadusha12</t>
   </si>
   <si>
-    <t>8 ч. 5 мин. 53 сек.</t>
+    <t>8 ч. 05 мин. 53 сек.</t>
   </si>
   <si>
     <t>74</t>
@@ -707,7 +707,7 @@
     <t>Мирный</t>
   </si>
   <si>
-    <t>7 ч. 57 мин. 0 сек.</t>
+    <t>7 ч. 57 мин. 00 сек.</t>
   </si>
   <si>
     <t>75</t>
@@ -743,7 +743,7 @@
     <t>Korner</t>
   </si>
   <si>
-    <t>7 ч. 43 мин. 4 сек.</t>
+    <t>7 ч. 43 мин. 04 сек.</t>
   </si>
   <si>
     <t>79</t>
@@ -761,7 +761,7 @@
     <t>Leshiy239</t>
   </si>
   <si>
-    <t>7 ч. 39 мин. 7 сек.</t>
+    <t>7 ч. 39 мин. 07 сек.</t>
   </si>
   <si>
     <t>81</t>
@@ -770,7 +770,7 @@
     <t>ufcntkkj</t>
   </si>
   <si>
-    <t>7 ч. 34 мин. 2 сек.</t>
+    <t>7 ч. 34 мин. 02 сек.</t>
   </si>
   <si>
     <t>82</t>
@@ -779,7 +779,7 @@
     <t>Бэтмен</t>
   </si>
   <si>
-    <t>7 ч. 33 мин. 7 сек.</t>
+    <t>7 ч. 33 мин. 07 сек.</t>
   </si>
   <si>
     <t>83</t>
@@ -869,7 +869,7 @@
     <t>Radius</t>
   </si>
   <si>
-    <t>7 ч. 6 мин. 48 сек.</t>
+    <t>7 ч. 06 мин. 48 сек.</t>
   </si>
   <si>
     <t>93</t>
@@ -878,7 +878,7 @@
     <t>arthan</t>
   </si>
   <si>
-    <t>7 ч. 2 мин. 32 сек.</t>
+    <t>7 ч. 02 мин. 32 сек.</t>
   </si>
   <si>
     <t>94</t>
@@ -887,7 +887,7 @@
     <t>emercomisha</t>
   </si>
   <si>
-    <t>6 ч. 57 мин. 4 сек.</t>
+    <t>6 ч. 57 мин. 04 сек.</t>
   </si>
   <si>
     <t>95</t>
@@ -932,7 +932,7 @@
     <t>Luxmaster</t>
   </si>
   <si>
-    <t>6 ч. 47 мин. 8 сек.</t>
+    <t>6 ч. 47 мин. 08 сек.</t>
   </si>
   <si>
     <t>100</t>
@@ -968,7 +968,7 @@
     <t>XR7</t>
   </si>
   <si>
-    <t>6 ч. 31 мин. 0 сек.</t>
+    <t>6 ч. 31 мин. 00 сек.</t>
   </si>
   <si>
     <t>104</t>
@@ -986,7 +986,7 @@
     <t>Графит</t>
   </si>
   <si>
-    <t>6 ч. 29 мин. 0 сек.</t>
+    <t>6 ч. 29 мин. 00 сек.</t>
   </si>
   <si>
     <t>106</t>
@@ -995,7 +995,7 @@
     <t>flethentel</t>
   </si>
   <si>
-    <t>6 ч. 27 мин. 4 сек.</t>
+    <t>6 ч. 27 мин. 04 сек.</t>
   </si>
   <si>
     <t>107</t>
@@ -1085,7 +1085,7 @@
     <t>Шмакодявка</t>
   </si>
   <si>
-    <t>6 ч. 9 мин. 45 сек.</t>
+    <t>6 ч. 09 мин. 45 сек.</t>
   </si>
   <si>
     <t>117</t>
@@ -1094,7 +1094,7 @@
     <t>Evariste</t>
   </si>
   <si>
-    <t>6 ч. 8 мин. 25 сек.</t>
+    <t>6 ч. 08 мин. 25 сек.</t>
   </si>
   <si>
     <t>118</t>
@@ -1103,7 +1103,7 @@
     <t>El_Mago</t>
   </si>
   <si>
-    <t>6 ч. 7 мин. 21 сек.</t>
+    <t>6 ч. 07 мин. 21 сек.</t>
   </si>
   <si>
     <t>119</t>
@@ -1112,7 +1112,7 @@
     <t>Xupypr_y</t>
   </si>
   <si>
-    <t>6 ч. 6 мин. 34 сек.</t>
+    <t>6 ч. 06 мин. 34 сек.</t>
   </si>
   <si>
     <t>120</t>
@@ -1121,7 +1121,7 @@
     <t>xcislav</t>
   </si>
   <si>
-    <t>6 ч. 0 мин. 57 сек.</t>
+    <t>6 ч. 00 мин. 57 сек.</t>
   </si>
   <si>
     <t>121</t>
@@ -1130,7 +1130,7 @@
     <t>Софья_Хуланова</t>
   </si>
   <si>
-    <t>6 ч. 0 мин. 39 сек.</t>
+    <t>6 ч. 00 мин. 39 сек.</t>
   </si>
   <si>
     <t>122</t>
@@ -1148,7 +1148,7 @@
     <t>daktule</t>
   </si>
   <si>
-    <t>5 ч. 59 мин. 2 сек.</t>
+    <t>5 ч. 59 мин. 02 сек.</t>
   </si>
   <si>
     <t>124</t>
@@ -1157,7 +1157,7 @@
     <t>Nuria</t>
   </si>
   <si>
-    <t>5 ч. 57 мин. 5 сек.</t>
+    <t>5 ч. 57 мин. 05 сек.</t>
   </si>
   <si>
     <t>125</t>
@@ -1166,7 +1166,7 @@
     <t>KOSTYA410</t>
   </si>
   <si>
-    <t>5 ч. 56 мин. 1 сек.</t>
+    <t>5 ч. 56 мин. 01 сек.</t>
   </si>
   <si>
     <t>126</t>
@@ -1310,7 +1310,7 @@
     <t>HellBoy33</t>
   </si>
   <si>
-    <t>5 ч. 24 мин. 3 сек.</t>
+    <t>5 ч. 24 мин. 03 сек.</t>
   </si>
   <si>
     <t>142</t>
@@ -1400,7 +1400,7 @@
     <t>dsdt</t>
   </si>
   <si>
-    <t>5 ч. 9 мин. 48 сек.</t>
+    <t>5 ч. 09 мин. 48 сек.</t>
   </si>
   <si>
     <t>152</t>
@@ -1409,7 +1409,7 @@
     <t>zdanhik</t>
   </si>
   <si>
-    <t>5 ч. 6 мин. 13 сек.</t>
+    <t>5 ч. 06 мин. 13 сек.</t>
   </si>
   <si>
     <t>153</t>
@@ -1418,7 +1418,7 @@
     <t>lek30</t>
   </si>
   <si>
-    <t>5 ч. 2 мин. 33 сек.</t>
+    <t>5 ч. 02 мин. 33 сек.</t>
   </si>
   <si>
     <t>154</t>
@@ -1427,7 +1427,7 @@
     <t>Игрок3</t>
   </si>
   <si>
-    <t>5 ч. 2 мин. 17 сек.</t>
+    <t>5 ч. 02 мин. 17 сек.</t>
   </si>
   <si>
     <t>155</t>
@@ -1436,7 +1436,7 @@
     <t>ТРЕКК</t>
   </si>
   <si>
-    <t>5 ч. 2 мин. 15 сек.</t>
+    <t>5 ч. 02 мин. 15 сек.</t>
   </si>
   <si>
     <t>156</t>
@@ -1445,7 +1445,7 @@
     <t>-FORCE-</t>
   </si>
   <si>
-    <t>5 ч. 1 мин. 47 сек.</t>
+    <t>5 ч. 01 мин. 47 сек.</t>
   </si>
   <si>
     <t>157</t>
@@ -1454,7 +1454,7 @@
     <t>Rogzard</t>
   </si>
   <si>
-    <t>5 ч. 1 мин. 13 сек.</t>
+    <t>5 ч. 01 мин. 13 сек.</t>
   </si>
   <si>
     <t>158</t>
@@ -1463,7 +1463,7 @@
     <t>glt198</t>
   </si>
   <si>
-    <t>5 ч. 0 мин. 31 сек.</t>
+    <t>5 ч. 00 мин. 31 сек.</t>
   </si>
   <si>
     <t>159</t>
@@ -1481,7 +1481,7 @@
     <t>Mask2017</t>
   </si>
   <si>
-    <t>4 ч. 56 мин. 5 сек.</t>
+    <t>4 ч. 56 мин. 05 сек.</t>
   </si>
   <si>
     <t>161</t>
@@ -1508,7 +1508,7 @@
     <t>InsydeR</t>
   </si>
   <si>
-    <t>4 ч. 51 мин. 5 сек.</t>
+    <t>4 ч. 51 мин. 05 сек.</t>
   </si>
   <si>
     <t>164</t>
@@ -1580,7 +1580,7 @@
     <t>nikmaron</t>
   </si>
   <si>
-    <t>4 ч. 43 мин. 5 сек.</t>
+    <t>4 ч. 43 мин. 05 сек.</t>
   </si>
   <si>
     <t>172</t>
@@ -1661,7 +1661,7 @@
     <t>Гонибалл</t>
   </si>
   <si>
-    <t>4 ч. 34 мин. 1 сек.</t>
+    <t>4 ч. 34 мин. 01 сек.</t>
   </si>
   <si>
     <t>181</t>
@@ -1679,7 +1679,7 @@
     <t>Sergey_Ch</t>
   </si>
   <si>
-    <t>4 ч. 30 мин. 5 сек.</t>
+    <t>4 ч. 30 мин. 05 сек.</t>
   </si>
   <si>
     <t>183</t>
@@ -1724,7 +1724,7 @@
     <t>Ллисса</t>
   </si>
   <si>
-    <t>4 ч. 21 мин. 8 сек.</t>
+    <t>4 ч. 21 мин. 08 сек.</t>
   </si>
   <si>
     <t>188</t>
@@ -1778,7 +1778,7 @@
     <t>MedLya112</t>
   </si>
   <si>
-    <t>4 ч. 15 мин. 0 сек.</t>
+    <t>4 ч. 15 мин. 00 сек.</t>
   </si>
   <si>
     <t>194</t>
@@ -1823,7 +1823,7 @@
     <t>ToNick</t>
   </si>
   <si>
-    <t>4 ч. 7 мин. 54 сек.</t>
+    <t>4 ч. 07 мин. 54 сек.</t>
   </si>
   <si>
     <t>199</t>
@@ -1832,7 +1832,7 @@
     <t>pa26</t>
   </si>
   <si>
-    <t>4 ч. 6 мин. 55 сек.</t>
+    <t>4 ч. 06 мин. 55 сек.</t>
   </si>
   <si>
     <t>200</t>
@@ -1841,7 +1841,7 @@
     <t>ДядяСаша</t>
   </si>
   <si>
-    <t>4 ч. 6 мин. 46 сек.</t>
+    <t>4 ч. 06 мин. 46 сек.</t>
   </si>
   <si>
     <t>201–202</t>
@@ -1850,7 +1850,7 @@
     <t>wizmon</t>
   </si>
   <si>
-    <t>4 ч. 5 мин. 23 сек.</t>
+    <t>4 ч. 05 мин. 23 сек.</t>
   </si>
   <si>
     <t>Vovaldo</t>
@@ -1862,7 +1862,7 @@
     <t>Sky-net</t>
   </si>
   <si>
-    <t>4 ч. 5 мин. 17 сек.</t>
+    <t>4 ч. 05 мин. 17 сек.</t>
   </si>
   <si>
     <t>204–205</t>
@@ -1871,7 +1871,7 @@
     <t>albertcoin</t>
   </si>
   <si>
-    <t>4 ч. 5 мин. 9 сек.</t>
+    <t>4 ч. 05 мин. 09 сек.</t>
   </si>
   <si>
     <t>Ilya666</t>
@@ -1883,7 +1883,7 @@
     <t>Геос</t>
   </si>
   <si>
-    <t>4 ч. 4 мин. 48 сек.</t>
+    <t>4 ч. 04 мин. 48 сек.</t>
   </si>
   <si>
     <t>207</t>
@@ -1892,7 +1892,7 @@
     <t>_Жемчужинка_</t>
   </si>
   <si>
-    <t>4 ч. 2 мин. 37 сек.</t>
+    <t>4 ч. 02 мин. 37 сек.</t>
   </si>
   <si>
     <t>208</t>
@@ -1901,7 +1901,7 @@
     <t>_ulanochka</t>
   </si>
   <si>
-    <t>4 ч. 0 мин. 59 сек.</t>
+    <t>4 ч. 00 мин. 59 сек.</t>
   </si>
   <si>
     <t>209</t>
@@ -1910,7 +1910,7 @@
     <t>Fox_creative</t>
   </si>
   <si>
-    <t>4 ч. 0 мин. 50 сек.</t>
+    <t>4 ч. 00 мин. 50 сек.</t>
   </si>
   <si>
     <t>210</t>
@@ -1949,7 +1949,7 @@
     <t>Биолог467</t>
   </si>
   <si>
-    <t>3 ч. 56 мин. 8 сек.</t>
+    <t>3 ч. 56 мин. 08 сек.</t>
   </si>
   <si>
     <t>215</t>
@@ -1994,7 +1994,7 @@
     <t>svetophor</t>
   </si>
   <si>
-    <t>3 ч. 49 мин. 8 сек.</t>
+    <t>3 ч. 49 мин. 08 сек.</t>
   </si>
   <si>
     <t>220</t>
@@ -2003,7 +2003,7 @@
     <t>Vi2GaN</t>
   </si>
   <si>
-    <t>3 ч. 49 мин. 6 сек.</t>
+    <t>3 ч. 49 мин. 06 сек.</t>
   </si>
   <si>
     <t>221</t>
@@ -2012,7 +2012,7 @@
     <t>АкунаМатата</t>
   </si>
   <si>
-    <t>3 ч. 49 мин. 5 сек.</t>
+    <t>3 ч. 49 мин. 05 сек.</t>
   </si>
   <si>
     <t>222</t>
@@ -2129,7 +2129,7 @@
     <t>bolgarinpavel</t>
   </si>
   <si>
-    <t>3 ч. 34 мин. 0 сек.</t>
+    <t>3 ч. 34 мин. 00 сек.</t>
   </si>
   <si>
     <t>235</t>
@@ -2165,7 +2165,7 @@
     <t>Рустамко</t>
   </si>
   <si>
-    <t>3 ч. 29 мин. 4 сек.</t>
+    <t>3 ч. 29 мин. 04 сек.</t>
   </si>
   <si>
     <t>239</t>
@@ -2174,7 +2174,7 @@
     <t>Гектор</t>
   </si>
   <si>
-    <t>3 ч. 29 мин. 2 сек.</t>
+    <t>3 ч. 29 мин. 02 сек.</t>
   </si>
   <si>
     <t>240</t>
@@ -2201,7 +2201,7 @@
     <t>Natalochka</t>
   </si>
   <si>
-    <t>3 ч. 26 мин. 4 сек.</t>
+    <t>3 ч. 26 мин. 04 сек.</t>
   </si>
   <si>
     <t>243</t>
@@ -2282,7 +2282,7 @@
     <t>Corleone99</t>
   </si>
   <si>
-    <t>3 ч. 15 мин. 2 сек.</t>
+    <t>3 ч. 15 мин. 02 сек.</t>
   </si>
   <si>
     <t>252</t>
@@ -2291,7 +2291,7 @@
     <t>mairabek</t>
   </si>
   <si>
-    <t>3 ч. 13 мин. 7 сек.</t>
+    <t>3 ч. 13 мин. 07 сек.</t>
   </si>
   <si>
     <t>253</t>
@@ -2309,7 +2309,7 @@
     <t>Annabeth</t>
   </si>
   <si>
-    <t>3 ч. 10 мин. 6 сек.</t>
+    <t>3 ч. 10 мин. 06 сек.</t>
   </si>
   <si>
     <t>255</t>
@@ -2318,7 +2318,7 @@
     <t>Viktor_Animal</t>
   </si>
   <si>
-    <t>3 ч. 10 мин. 5 сек.</t>
+    <t>3 ч. 10 мин. 05 сек.</t>
   </si>
   <si>
     <t>256</t>
@@ -2327,7 +2327,7 @@
     <t>YuranTM</t>
   </si>
   <si>
-    <t>3 ч. 9 мин. 16 сек.</t>
+    <t>3 ч. 09 мин. 16 сек.</t>
   </si>
   <si>
     <t>257</t>
@@ -2336,7 +2336,7 @@
     <t>Wassja</t>
   </si>
   <si>
-    <t>3 ч. 8 мин. 27 сек.</t>
+    <t>3 ч. 08 мин. 27 сек.</t>
   </si>
   <si>
     <t>258</t>
@@ -2345,7 +2345,7 @@
     <t>Атата</t>
   </si>
   <si>
-    <t>3 ч. 7 мин. 42 сек.</t>
+    <t>3 ч. 07 мин. 42 сек.</t>
   </si>
   <si>
     <t>259</t>
@@ -2354,7 +2354,7 @@
     <t>ANchY2J</t>
   </si>
   <si>
-    <t>3 ч. 6 мин. 48 сек.</t>
+    <t>3 ч. 06 мин. 48 сек.</t>
   </si>
   <si>
     <t>260</t>
@@ -2363,7 +2363,7 @@
     <t>forward-ok</t>
   </si>
   <si>
-    <t>3 ч. 6 мин. 35 сек.</t>
+    <t>3 ч. 06 мин. 35 сек.</t>
   </si>
   <si>
     <t>261</t>
@@ -2372,7 +2372,7 @@
     <t>Соточка</t>
   </si>
   <si>
-    <t>3 ч. 6 мин. 17 сек.</t>
+    <t>3 ч. 06 мин. 17 сек.</t>
   </si>
   <si>
     <t>262</t>
@@ -2381,7 +2381,7 @@
     <t>тощий_кабан</t>
   </si>
   <si>
-    <t>3 ч. 5 мин. 45 сек.</t>
+    <t>3 ч. 05 мин. 45 сек.</t>
   </si>
   <si>
     <t>263</t>
@@ -2390,7 +2390,7 @@
     <t>_600_</t>
   </si>
   <si>
-    <t>3 ч. 4 мин. 22 сек.</t>
+    <t>3 ч. 04 мин. 22 сек.</t>
   </si>
   <si>
     <t>264</t>
@@ -2399,7 +2399,7 @@
     <t>чебупеля</t>
   </si>
   <si>
-    <t>3 ч. 3 мин. 50 сек.</t>
+    <t>3 ч. 03 мин. 50 сек.</t>
   </si>
   <si>
     <t>265</t>
@@ -2408,7 +2408,7 @@
     <t>VQV</t>
   </si>
   <si>
-    <t>3 ч. 1 мин. 38 сек.</t>
+    <t>3 ч. 01 мин. 38 сек.</t>
   </si>
   <si>
     <t>266</t>
@@ -2417,7 +2417,7 @@
     <t>ikim_online</t>
   </si>
   <si>
-    <t>3 ч. 1 мин. 33 сек.</t>
+    <t>3 ч. 01 мин. 33 сек.</t>
   </si>
   <si>
     <t>267</t>
@@ -2426,7 +2426,7 @@
     <t>Ann_13</t>
   </si>
   <si>
-    <t>3 ч. 1 мин. 14 сек.</t>
+    <t>3 ч. 01 мин. 14 сек.</t>
   </si>
   <si>
     <t>268</t>
@@ -2435,7 +2435,7 @@
     <t>amt</t>
   </si>
   <si>
-    <t>2 ч. 59 мин. 5 сек.</t>
+    <t>2 ч. 59 мин. 05 сек.</t>
   </si>
   <si>
     <t>269</t>
@@ -2462,7 +2462,7 @@
     <t>tinto</t>
   </si>
   <si>
-    <t>2 ч. 56 мин. 8 сек.</t>
+    <t>2 ч. 56 мин. 08 сек.</t>
   </si>
   <si>
     <t>272</t>
@@ -2471,7 +2471,7 @@
     <t>ckandy</t>
   </si>
   <si>
-    <t>2 ч. 55 мин. 1 сек.</t>
+    <t>2 ч. 55 мин. 01 сек.</t>
   </si>
   <si>
     <t>273</t>
@@ -2579,7 +2579,7 @@
     <t>Старец</t>
   </si>
   <si>
-    <t>2 ч. 47 мин. 1 сек.</t>
+    <t>2 ч. 47 мин. 01 сек.</t>
   </si>
   <si>
     <t>285</t>
@@ -2615,7 +2615,7 @@
     <t>Клавишник</t>
   </si>
   <si>
-    <t>2 ч. 46 мин. 7 сек.</t>
+    <t>2 ч. 46 мин. 07 сек.</t>
   </si>
   <si>
     <t>289</t>
@@ -2687,7 +2687,7 @@
     <t>NDancer</t>
   </si>
   <si>
-    <t>2 ч. 42 мин. 9 сек.</t>
+    <t>2 ч. 42 мин. 09 сек.</t>
   </si>
   <si>
     <t>297</t>
@@ -2768,7 +2768,7 @@
     <t>Френдли</t>
   </si>
   <si>
-    <t>2 ч. 38 мин. 3 сек.</t>
+    <t>2 ч. 38 мин. 03 сек.</t>
   </si>
   <si>
     <t>306</t>
@@ -2951,7 +2951,7 @@
     <t>_Сайман_</t>
   </si>
   <si>
-    <t>2 ч. 26 мин. 3 сек.</t>
+    <t>2 ч. 26 мин. 03 сек.</t>
   </si>
   <si>
     <t>327</t>
@@ -2987,7 +2987,7 @@
     <t>машина</t>
   </si>
   <si>
-    <t>2 ч. 23 мин. 8 сек.</t>
+    <t>2 ч. 23 мин. 08 сек.</t>
   </si>
   <si>
     <t>331</t>
@@ -3122,7 +3122,7 @@
     <t>Командир</t>
   </si>
   <si>
-    <t>2 ч. 16 мин. 5 сек.</t>
+    <t>2 ч. 16 мин. 05 сек.</t>
   </si>
   <si>
     <t>346</t>
@@ -3185,7 +3185,7 @@
     <t>adocs</t>
   </si>
   <si>
-    <t>2 ч. 12 мин. 0 сек.</t>
+    <t>2 ч. 12 мин. 00 сек.</t>
   </si>
   <si>
     <t>353</t>
@@ -3203,7 +3203,7 @@
     <t>NeviD</t>
   </si>
   <si>
-    <t>2 ч. 11 мин. 2 сек.</t>
+    <t>2 ч. 11 мин. 02 сек.</t>
   </si>
   <si>
     <t>355</t>
@@ -3212,7 +3212,7 @@
     <t>Romario100</t>
   </si>
   <si>
-    <t>2 ч. 9 мин. 37 сек.</t>
+    <t>2 ч. 09 мин. 37 сек.</t>
   </si>
   <si>
     <t>356</t>
@@ -3221,7 +3221,7 @@
     <t>клавоинка</t>
   </si>
   <si>
-    <t>2 ч. 8 мин. 43 сек.</t>
+    <t>2 ч. 08 мин. 43 сек.</t>
   </si>
   <si>
     <t>357</t>
@@ -3230,7 +3230,7 @@
     <t>inexpert</t>
   </si>
   <si>
-    <t>2 ч. 7 мин. 51 сек.</t>
+    <t>2 ч. 07 мин. 51 сек.</t>
   </si>
   <si>
     <t>358</t>
@@ -3239,7 +3239,7 @@
     <t>Slavik89</t>
   </si>
   <si>
-    <t>2 ч. 7 мин. 42 сек.</t>
+    <t>2 ч. 07 мин. 42 сек.</t>
   </si>
   <si>
     <t>359</t>
@@ -3248,7 +3248,7 @@
     <t>Galaad</t>
   </si>
   <si>
-    <t>2 ч. 7 мин. 33 сек.</t>
+    <t>2 ч. 07 мин. 33 сек.</t>
   </si>
   <si>
     <t>360</t>
@@ -3257,7 +3257,7 @@
     <t>Just_so_Lex</t>
   </si>
   <si>
-    <t>2 ч. 7 мин. 23 сек.</t>
+    <t>2 ч. 07 мин. 23 сек.</t>
   </si>
   <si>
     <t>361</t>
@@ -3266,7 +3266,7 @@
     <t>stag_</t>
   </si>
   <si>
-    <t>2 ч. 7 мин. 3 сек.</t>
+    <t>2 ч. 07 мин. 03 сек.</t>
   </si>
   <si>
     <t>362</t>
@@ -3275,7 +3275,7 @@
     <t>NineFingers</t>
   </si>
   <si>
-    <t>2 ч. 6 мин. 20 сек.</t>
+    <t>2 ч. 06 мин. 20 сек.</t>
   </si>
   <si>
     <t>363</t>
@@ -3284,7 +3284,7 @@
     <t>Zettabyte</t>
   </si>
   <si>
-    <t>2 ч. 5 мин. 20 сек.</t>
+    <t>2 ч. 05 мин. 20 сек.</t>
   </si>
   <si>
     <t>364</t>
@@ -3293,7 +3293,7 @@
     <t>Валацуга</t>
   </si>
   <si>
-    <t>2 ч. 3 мин. 51 сек.</t>
+    <t>2 ч. 03 мин. 51 сек.</t>
   </si>
   <si>
     <t>365</t>
@@ -3302,7 +3302,7 @@
     <t>doklls</t>
   </si>
   <si>
-    <t>2 ч. 3 мин. 43 сек.</t>
+    <t>2 ч. 03 мин. 43 сек.</t>
   </si>
   <si>
     <t>366</t>
@@ -3311,7 +3311,7 @@
     <t>Chedi</t>
   </si>
   <si>
-    <t>2 ч. 3 мин. 41 сек.</t>
+    <t>2 ч. 03 мин. 41 сек.</t>
   </si>
   <si>
     <t>367</t>
@@ -3320,7 +3320,7 @@
     <t>_sorriso_</t>
   </si>
   <si>
-    <t>2 ч. 3 мин. 35 сек.</t>
+    <t>2 ч. 03 мин. 35 сек.</t>
   </si>
   <si>
     <t>368</t>
@@ -3329,7 +3329,7 @@
     <t>Holly_Maggie</t>
   </si>
   <si>
-    <t>2 ч. 2 мин. 58 сек.</t>
+    <t>2 ч. 02 мин. 58 сек.</t>
   </si>
   <si>
     <t>369</t>
@@ -3338,7 +3338,7 @@
     <t>Zippin</t>
   </si>
   <si>
-    <t>2 ч. 2 мин. 43 сек.</t>
+    <t>2 ч. 02 мин. 43 сек.</t>
   </si>
   <si>
     <t>370</t>
@@ -3347,7 +3347,7 @@
     <t>alanen</t>
   </si>
   <si>
-    <t>2 ч. 2 мин. 39 сек.</t>
+    <t>2 ч. 02 мин. 39 сек.</t>
   </si>
   <si>
     <t>371</t>
@@ -3356,7 +3356,7 @@
     <t>sneg_jr</t>
   </si>
   <si>
-    <t>2 ч. 2 мин. 33 сек.</t>
+    <t>2 ч. 02 мин. 33 сек.</t>
   </si>
   <si>
     <t>372</t>
@@ -3365,7 +3365,7 @@
     <t>madinko</t>
   </si>
   <si>
-    <t>2 ч. 2 мин. 9 сек.</t>
+    <t>2 ч. 02 мин. 09 сек.</t>
   </si>
   <si>
     <t>373</t>
@@ -3374,7 +3374,7 @@
     <t>Traumstaub</t>
   </si>
   <si>
-    <t>2 ч. 1 мин. 50 сек.</t>
+    <t>2 ч. 01 мин. 50 сек.</t>
   </si>
   <si>
     <t>374</t>
@@ -3383,7 +3383,7 @@
     <t>GalaGale</t>
   </si>
   <si>
-    <t>2 ч. 1 мин. 28 сек.</t>
+    <t>2 ч. 01 мин. 28 сек.</t>
   </si>
   <si>
     <t>375</t>
@@ -3392,7 +3392,7 @@
     <t>SEFER</t>
   </si>
   <si>
-    <t>2 ч. 0 мин. 19 сек.</t>
+    <t>2 ч. 00 мин. 19 сек.</t>
   </si>
   <si>
     <t>376</t>
@@ -3401,7 +3401,7 @@
     <t>azukun</t>
   </si>
   <si>
-    <t>2 ч. 0 мин. 8 сек.</t>
+    <t>2 ч. 00 мин. 08 сек.</t>
   </si>
   <si>
     <t>377</t>
@@ -3500,7 +3500,7 @@
     <t>Леоня</t>
   </si>
   <si>
-    <t>1 ч. 50 мин. 7 сек.</t>
+    <t>1 ч. 50 мин. 07 сек.</t>
   </si>
   <si>
     <t>388–389</t>
@@ -3521,7 +3521,7 @@
     <t>JPM</t>
   </si>
   <si>
-    <t>1 ч. 49 мин. 6 сек.</t>
+    <t>1 ч. 49 мин. 06 сек.</t>
   </si>
   <si>
     <t>391</t>
@@ -3593,7 +3593,7 @@
     <t>dogs_life</t>
   </si>
   <si>
-    <t>1 ч. 45 мин. 9 сек.</t>
+    <t>1 ч. 45 мин. 09 сек.</t>
   </si>
   <si>
     <t>399</t>
@@ -3719,7 +3719,7 @@
     <t>Bobreogen</t>
   </si>
   <si>
-    <t>1 ч. 34 мин. 8 сек.</t>
+    <t>1 ч. 34 мин. 08 сек.</t>
   </si>
   <si>
     <t>413</t>
@@ -3782,7 +3782,7 @@
     <t>Tahion</t>
   </si>
   <si>
-    <t>1 ч. 23 мин. 1 сек.</t>
+    <t>1 ч. 23 мин. 01 сек.</t>
   </si>
   <si>
     <t>420</t>
